--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H2">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I2">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J2">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.3792757903497</v>
+        <v>10.4223555</v>
       </c>
       <c r="N2">
-        <v>10.3792757903497</v>
+        <v>20.844711</v>
       </c>
       <c r="O2">
-        <v>0.5267070808686305</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P2">
-        <v>0.5267070808686305</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q2">
-        <v>32.08679215319241</v>
+        <v>32.69990066707349</v>
       </c>
       <c r="R2">
-        <v>32.08679215319241</v>
+        <v>130.799602668294</v>
       </c>
       <c r="S2">
-        <v>0.1611995933465352</v>
+        <v>0.1416083851067171</v>
       </c>
       <c r="T2">
-        <v>0.1611995933465352</v>
+        <v>0.09153109920315766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H3">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I3">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J3">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83240741284493</v>
+        <v>2.082668</v>
       </c>
       <c r="N3">
-        <v>1.83240741284493</v>
+        <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.09298740864742691</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P3">
-        <v>0.09298740864742691</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q3">
-        <v>5.664757058540723</v>
+        <v>6.534322948636</v>
       </c>
       <c r="R3">
-        <v>5.664757058540723</v>
+        <v>39.205937691816</v>
       </c>
       <c r="S3">
-        <v>0.02845895376153478</v>
+        <v>0.02829717832916335</v>
       </c>
       <c r="T3">
-        <v>0.02845895376153478</v>
+        <v>0.02743557701259211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H4">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I4">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J4">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.8392634676081</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>5.8392634676081</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.296319461739929</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P4">
-        <v>0.296319461739929</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q4">
-        <v>18.0516672836726</v>
+        <v>0.08358866223399999</v>
       </c>
       <c r="R4">
-        <v>18.0516672836726</v>
+        <v>0.501531973404</v>
       </c>
       <c r="S4">
-        <v>0.0906890726708391</v>
+        <v>0.0003619844473749872</v>
       </c>
       <c r="T4">
-        <v>0.0906890726708391</v>
+        <v>0.0003509626319554913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.09142880498711</v>
+        <v>3.137477</v>
       </c>
       <c r="H5">
-        <v>3.09142880498711</v>
+        <v>6.274954</v>
       </c>
       <c r="I5">
-        <v>0.3060516921107068</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J5">
-        <v>0.3060516921107068</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65502685291085</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N5">
-        <v>1.65502685291085</v>
+        <v>18.334645</v>
       </c>
       <c r="O5">
-        <v>0.08398604874401359</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P5">
-        <v>0.08398604874401359</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q5">
-        <v>5.116397686115767</v>
+        <v>19.17484233022167</v>
       </c>
       <c r="R5">
-        <v>5.116397686115767</v>
+        <v>115.04905398133</v>
       </c>
       <c r="S5">
-        <v>0.02570407233179766</v>
+        <v>0.08303751392715229</v>
       </c>
       <c r="T5">
-        <v>0.02570407233179766</v>
+        <v>0.08050916178927495</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.11414876753105</v>
+        <v>3.137477</v>
       </c>
       <c r="H6">
-        <v>2.11414876753105</v>
+        <v>6.274954</v>
       </c>
       <c r="I6">
-        <v>0.2093008924005743</v>
+        <v>0.2757933218263556</v>
       </c>
       <c r="J6">
-        <v>0.2093008924005743</v>
+        <v>0.2143624876083055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3792757903497</v>
+        <v>1.6551325</v>
       </c>
       <c r="N6">
-        <v>10.3792757903497</v>
+        <v>3.310265</v>
       </c>
       <c r="O6">
-        <v>0.5267070808686305</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P6">
-        <v>0.5267070808686305</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q6">
-        <v>21.94333312003268</v>
+        <v>5.1929401507025</v>
       </c>
       <c r="R6">
-        <v>21.94333312003268</v>
+        <v>20.77176060281</v>
       </c>
       <c r="S6">
-        <v>0.1102402620595058</v>
+        <v>0.02248826001594779</v>
       </c>
       <c r="T6">
-        <v>0.1102402620595058</v>
+        <v>0.01453568697132528</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H7">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I7">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J7">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83240741284493</v>
+        <v>10.4223555</v>
       </c>
       <c r="N7">
-        <v>1.83240741284493</v>
+        <v>20.844711</v>
       </c>
       <c r="O7">
-        <v>0.09298740864742691</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P7">
-        <v>0.09298740864742691</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q7">
-        <v>3.873981873480869</v>
+        <v>24.07029106251</v>
       </c>
       <c r="R7">
-        <v>3.873981873480869</v>
+        <v>144.42174637506</v>
       </c>
       <c r="S7">
-        <v>0.01946234761192334</v>
+        <v>0.1042374740251998</v>
       </c>
       <c r="T7">
-        <v>0.01946234761192334</v>
+        <v>0.1010636188863073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H8">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I8">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J8">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8392634676081</v>
+        <v>2.082668</v>
       </c>
       <c r="N8">
-        <v>5.8392634676081</v>
+        <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.296319461739929</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P8">
-        <v>0.296319461739929</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q8">
-        <v>12.34507166333275</v>
+        <v>4.809893977093334</v>
       </c>
       <c r="R8">
-        <v>12.34507166333275</v>
+        <v>43.28904579384</v>
       </c>
       <c r="S8">
-        <v>0.06201992777782497</v>
+        <v>0.02082946139700521</v>
       </c>
       <c r="T8">
-        <v>0.06201992777782497</v>
+        <v>0.03029285918409345</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.11414876753105</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H9">
-        <v>2.11414876753105</v>
+        <v>6.92846</v>
       </c>
       <c r="I9">
-        <v>0.2093008924005743</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J9">
-        <v>0.2093008924005743</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.65502685291085</v>
+        <v>0.026642</v>
       </c>
       <c r="N9">
-        <v>1.65502685291085</v>
+        <v>0.079926</v>
       </c>
       <c r="O9">
-        <v>0.08398604874401359</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P9">
-        <v>0.08398604874401359</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q9">
-        <v>3.498972981312266</v>
+        <v>0.06152934377333334</v>
       </c>
       <c r="R9">
-        <v>3.498972981312266</v>
+        <v>0.55376409396</v>
       </c>
       <c r="S9">
-        <v>0.01757835495132018</v>
+        <v>0.0002664555803128548</v>
       </c>
       <c r="T9">
-        <v>0.01757835495132018</v>
+        <v>0.0003875136864745691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.26925591116813</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H10">
-        <v>1.26925591116813</v>
+        <v>6.92846</v>
       </c>
       <c r="I10">
-        <v>0.1256564339142667</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J10">
-        <v>0.1256564339142667</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.3792757903497</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N10">
-        <v>10.3792757903497</v>
+        <v>18.334645</v>
       </c>
       <c r="O10">
-        <v>0.5267070808686305</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P10">
-        <v>0.5267070808686305</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q10">
-        <v>13.17395715054562</v>
+        <v>14.11453938852223</v>
       </c>
       <c r="R10">
-        <v>13.17395715054562</v>
+        <v>127.0308544967</v>
       </c>
       <c r="S10">
-        <v>0.06618413349934538</v>
+        <v>0.06112364528820638</v>
       </c>
       <c r="T10">
-        <v>0.06618413349934538</v>
+        <v>0.08889380019208426</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.26925591116813</v>
+        <v>2.309486666666667</v>
       </c>
       <c r="H11">
-        <v>1.26925591116813</v>
+        <v>6.92846</v>
       </c>
       <c r="I11">
-        <v>0.1256564339142667</v>
+        <v>0.2030105717153233</v>
       </c>
       <c r="J11">
-        <v>0.1256564339142667</v>
+        <v>0.2366873001610275</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.83240741284493</v>
+        <v>1.6551325</v>
       </c>
       <c r="N11">
-        <v>1.83240741284493</v>
+        <v>3.310265</v>
       </c>
       <c r="O11">
-        <v>0.09298740864742691</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P11">
-        <v>0.09298740864742691</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q11">
-        <v>2.325793940421728</v>
+        <v>3.822506440316667</v>
       </c>
       <c r="R11">
-        <v>2.325793940421728</v>
+        <v>22.9350386419</v>
       </c>
       <c r="S11">
-        <v>0.01168446616956431</v>
+        <v>0.01655353542459899</v>
       </c>
       <c r="T11">
-        <v>0.01168446616956431</v>
+        <v>0.01604950821206791</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H12">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I12">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J12">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.8392634676081</v>
+        <v>10.4223555</v>
       </c>
       <c r="N12">
-        <v>5.8392634676081</v>
+        <v>20.844711</v>
       </c>
       <c r="O12">
-        <v>0.296319461739929</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P12">
-        <v>0.296319461739929</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q12">
-        <v>7.411519673129694</v>
+        <v>6.114795971849999</v>
       </c>
       <c r="R12">
-        <v>7.411519673129694</v>
+        <v>36.6887758311</v>
       </c>
       <c r="S12">
-        <v>0.03723444686163446</v>
+        <v>0.02648039795737497</v>
       </c>
       <c r="T12">
-        <v>0.03723444686163446</v>
+        <v>0.02567411453653331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.26925591116813</v>
+        <v>0.5867</v>
       </c>
       <c r="H13">
-        <v>1.26925591116813</v>
+        <v>1.7601</v>
       </c>
       <c r="I13">
-        <v>0.1256564339142667</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J13">
-        <v>0.1256564339142667</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.65502685291085</v>
+        <v>2.082668</v>
       </c>
       <c r="N13">
-        <v>1.65502685291085</v>
+        <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.08398604874401359</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P13">
-        <v>0.08398604874401359</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q13">
-        <v>2.100652616199084</v>
+        <v>1.2219013156</v>
       </c>
       <c r="R13">
-        <v>2.100652616199084</v>
+        <v>10.9971118404</v>
       </c>
       <c r="S13">
-        <v>0.01055338738372252</v>
+        <v>0.005291498400058435</v>
       </c>
       <c r="T13">
-        <v>0.01055338738372252</v>
+        <v>0.007695571808154033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>1.95387430571397</v>
+        <v>0.5867</v>
       </c>
       <c r="H14">
-        <v>1.95387430571397</v>
+        <v>1.7601</v>
       </c>
       <c r="I14">
-        <v>0.1934337082163166</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J14">
-        <v>0.1934337082163166</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>10.3792757903497</v>
+        <v>0.026642</v>
       </c>
       <c r="N14">
-        <v>10.3792757903497</v>
+        <v>0.079926</v>
       </c>
       <c r="O14">
-        <v>0.5267070808686305</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P14">
-        <v>0.5267070808686305</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q14">
-        <v>20.27980027868334</v>
+        <v>0.0156308614</v>
       </c>
       <c r="R14">
-        <v>20.27980027868334</v>
+        <v>0.1406777526</v>
       </c>
       <c r="S14">
-        <v>0.1018829037962106</v>
+        <v>6.769014570462351E-05</v>
       </c>
       <c r="T14">
-        <v>0.1018829037962106</v>
+        <v>9.844364253584333E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>1.95387430571397</v>
+        <v>0.5867</v>
       </c>
       <c r="H15">
-        <v>1.95387430571397</v>
+        <v>1.7601</v>
       </c>
       <c r="I15">
-        <v>0.1934337082163166</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J15">
-        <v>0.1934337082163166</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.83240741284493</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N15">
-        <v>1.83240741284493</v>
+        <v>18.334645</v>
       </c>
       <c r="O15">
-        <v>0.09298740864742691</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P15">
-        <v>0.09298740864742691</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q15">
-        <v>3.580293761557519</v>
+        <v>3.585645407166667</v>
       </c>
       <c r="R15">
-        <v>3.580293761557519</v>
+        <v>32.2708086645</v>
       </c>
       <c r="S15">
-        <v>0.01798689927209778</v>
+        <v>0.01552779810690573</v>
       </c>
       <c r="T15">
-        <v>0.01798689927209778</v>
+        <v>0.0225825042964941</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>1.95387430571397</v>
+        <v>0.5867</v>
       </c>
       <c r="H16">
-        <v>1.95387430571397</v>
+        <v>1.7601</v>
       </c>
       <c r="I16">
-        <v>0.1934337082163166</v>
+        <v>0.05157263046566488</v>
       </c>
       <c r="J16">
-        <v>0.1934337082163166</v>
+        <v>0.06012783750117986</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.8392634676081</v>
+        <v>1.6551325</v>
       </c>
       <c r="N16">
-        <v>5.8392634676081</v>
+        <v>3.310265</v>
       </c>
       <c r="O16">
-        <v>0.296319461739929</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P16">
-        <v>0.296319461739929</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q16">
-        <v>11.40918685365373</v>
+        <v>0.9710662377500001</v>
       </c>
       <c r="R16">
-        <v>11.40918685365373</v>
+        <v>5.826397426500001</v>
       </c>
       <c r="S16">
-        <v>0.05731817230101742</v>
+        <v>0.004205245855621115</v>
       </c>
       <c r="T16">
-        <v>0.05731817230101742</v>
+        <v>0.004077203217462571</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.95387430571397</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H17">
-        <v>1.95387430571397</v>
+        <v>4.562099</v>
       </c>
       <c r="I17">
-        <v>0.1934337082163166</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J17">
-        <v>0.1934337082163166</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.65502685291085</v>
+        <v>10.4223555</v>
       </c>
       <c r="N17">
-        <v>1.65502685291085</v>
+        <v>20.844711</v>
       </c>
       <c r="O17">
-        <v>0.08398604874401359</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P17">
-        <v>0.08398604874401359</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q17">
-        <v>3.233714443169164</v>
+        <v>15.8492725347315</v>
       </c>
       <c r="R17">
-        <v>3.233714443169164</v>
+        <v>95.09563520838898</v>
       </c>
       <c r="S17">
-        <v>0.01624573284699087</v>
+        <v>0.06863598491048371</v>
       </c>
       <c r="T17">
-        <v>0.01624573284699087</v>
+        <v>0.06654613502244421</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.67229437682485</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H18">
-        <v>1.67229437682485</v>
+        <v>4.562099</v>
       </c>
       <c r="I18">
-        <v>0.1655572733581356</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J18">
-        <v>0.1655572733581356</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.3792757903497</v>
+        <v>2.082668</v>
       </c>
       <c r="N18">
-        <v>10.3792757903497</v>
+        <v>6.248004</v>
       </c>
       <c r="O18">
-        <v>0.5267070808686305</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P18">
-        <v>0.5267070808686305</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q18">
-        <v>17.3572045397161</v>
+        <v>3.167112533377333</v>
       </c>
       <c r="R18">
-        <v>17.3572045397161</v>
+        <v>28.504012800396</v>
       </c>
       <c r="S18">
-        <v>0.08720018816703347</v>
+        <v>0.01371532274268972</v>
       </c>
       <c r="T18">
-        <v>0.08720018816703347</v>
+        <v>0.01994657147344339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.67229437682485</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H19">
-        <v>1.67229437682485</v>
+        <v>4.562099</v>
       </c>
       <c r="I19">
-        <v>0.1655572733581356</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J19">
-        <v>0.1655572733581356</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.83240741284493</v>
+        <v>0.026642</v>
       </c>
       <c r="N19">
-        <v>1.83240741284493</v>
+        <v>0.079926</v>
       </c>
       <c r="O19">
-        <v>0.09298740864742691</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P19">
-        <v>0.09298740864742691</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q19">
-        <v>3.064324612552748</v>
+        <v>0.04051448051933333</v>
       </c>
       <c r="R19">
-        <v>3.064324612552748</v>
+        <v>0.364630324674</v>
       </c>
       <c r="S19">
-        <v>0.01539474183230671</v>
+        <v>0.000175449773324764</v>
       </c>
       <c r="T19">
-        <v>0.01539474183230671</v>
+        <v>0.00025516143580997</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.67229437682485</v>
+        <v>1.520699666666667</v>
       </c>
       <c r="H20">
-        <v>1.67229437682485</v>
+        <v>4.562099</v>
       </c>
       <c r="I20">
-        <v>0.1655572733581356</v>
+        <v>0.1336739082295206</v>
       </c>
       <c r="J20">
-        <v>0.1655572733581356</v>
+        <v>0.1558486150424948</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.8392634676081</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N20">
-        <v>5.8392634676081</v>
+        <v>18.334645</v>
       </c>
       <c r="O20">
-        <v>0.296319461739929</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P20">
-        <v>0.296319461739929</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q20">
-        <v>9.764967461679799</v>
+        <v>9.293829513317222</v>
       </c>
       <c r="R20">
-        <v>9.764967461679799</v>
+        <v>83.64446561985501</v>
       </c>
       <c r="S20">
-        <v>0.04905784212861301</v>
+        <v>0.04024734515977302</v>
       </c>
       <c r="T20">
-        <v>0.04905784212861301</v>
+        <v>0.05853282215131608</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.520699666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.562099</v>
+      </c>
+      <c r="I21">
+        <v>0.1336739082295206</v>
+      </c>
+      <c r="J21">
+        <v>0.1558486150424948</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.6551325</v>
+      </c>
+      <c r="N21">
+        <v>3.310265</v>
+      </c>
+      <c r="O21">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P21">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q21">
+        <v>2.516959441039166</v>
+      </c>
+      <c r="R21">
+        <v>15.101756646235</v>
+      </c>
+      <c r="S21">
+        <v>0.01089980564324938</v>
+      </c>
+      <c r="T21">
+        <v>0.01056792495948115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.310099</v>
+      </c>
+      <c r="I22">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J22">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.4223555</v>
+      </c>
+      <c r="N22">
+        <v>20.844711</v>
+      </c>
+      <c r="O22">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P22">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q22">
+        <v>21.9220316727315</v>
+      </c>
+      <c r="R22">
+        <v>131.532190036389</v>
+      </c>
+      <c r="S22">
+        <v>0.09493434047521949</v>
+      </c>
+      <c r="T22">
+        <v>0.09204375004992005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.310099</v>
+      </c>
+      <c r="I23">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J23">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.082668</v>
+      </c>
+      <c r="N23">
+        <v>6.248004</v>
+      </c>
+      <c r="O23">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P23">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q23">
+        <v>4.380613754710667</v>
+      </c>
+      <c r="R23">
+        <v>39.425523792396</v>
+      </c>
+      <c r="S23">
+        <v>0.01897044415812188</v>
+      </c>
+      <c r="T23">
+        <v>0.02758923923132831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.310099</v>
+      </c>
+      <c r="I24">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J24">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.026642</v>
+      </c>
+      <c r="N24">
+        <v>0.079926</v>
+      </c>
+      <c r="O24">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P24">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q24">
+        <v>0.05603788585266666</v>
+      </c>
+      <c r="R24">
+        <v>0.504340972674</v>
+      </c>
+      <c r="S24">
+        <v>0.0002426745757176291</v>
+      </c>
+      <c r="T24">
+        <v>0.0003529283167557425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.310099</v>
+      </c>
+      <c r="I25">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J25">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N25">
+        <v>18.334645</v>
+      </c>
+      <c r="O25">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P25">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q25">
+        <v>12.85482500887278</v>
+      </c>
+      <c r="R25">
+        <v>115.693425079855</v>
+      </c>
+      <c r="S25">
+        <v>0.05566839571989529</v>
+      </c>
+      <c r="T25">
+        <v>0.08096008055156134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.103366333333333</v>
+      </c>
+      <c r="H26">
+        <v>6.310099</v>
+      </c>
+      <c r="I26">
+        <v>0.1848919970051482</v>
+      </c>
+      <c r="J26">
+        <v>0.2155630971469562</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6551325</v>
+      </c>
+      <c r="N26">
+        <v>3.310265</v>
+      </c>
+      <c r="O26">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P26">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q26">
+        <v>3.481349977705833</v>
+      </c>
+      <c r="R26">
+        <v>20.888099866235</v>
+      </c>
+      <c r="S26">
+        <v>0.01507614207619393</v>
+      </c>
+      <c r="T26">
+        <v>0.01461709899739069</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.7184595</v>
+      </c>
+      <c r="H27">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J27">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.4223555</v>
+      </c>
+      <c r="N27">
+        <v>20.844711</v>
+      </c>
+      <c r="O27">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P27">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q27">
+        <v>17.91039582135225</v>
+      </c>
+      <c r="R27">
+        <v>71.641583285409</v>
+      </c>
+      <c r="S27">
+        <v>0.07756177166120952</v>
+      </c>
+      <c r="T27">
+        <v>0.05013343108845379</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.7184595</v>
+      </c>
+      <c r="H28">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J28">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.082668</v>
+      </c>
+      <c r="N28">
+        <v>6.248004</v>
+      </c>
+      <c r="O28">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P28">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q28">
+        <v>3.578980609946</v>
+      </c>
+      <c r="R28">
+        <v>21.473883659676</v>
+      </c>
+      <c r="S28">
+        <v>0.01549893590389504</v>
+      </c>
+      <c r="T28">
+        <v>0.01502701946668312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.7184595</v>
+      </c>
+      <c r="H29">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J29">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.026642</v>
+      </c>
+      <c r="N29">
+        <v>0.079926</v>
+      </c>
+      <c r="O29">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P29">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q29">
+        <v>0.04578319799900001</v>
+      </c>
+      <c r="R29">
+        <v>0.274699187994</v>
+      </c>
+      <c r="S29">
+        <v>0.0001982661904593395</v>
+      </c>
+      <c r="T29">
+        <v>0.0001922293196185717</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="H21">
-        <v>1.67229437682485</v>
-      </c>
-      <c r="I21">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="J21">
-        <v>0.1655572733581356</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="N21">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="O21">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="P21">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="Q21">
-        <v>2.767692099616943</v>
-      </c>
-      <c r="R21">
-        <v>2.767692099616943</v>
-      </c>
-      <c r="S21">
-        <v>0.01390450123018236</v>
-      </c>
-      <c r="T21">
-        <v>0.01390450123018236</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.7184595</v>
+      </c>
+      <c r="H30">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J30">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N30">
+        <v>18.334645</v>
+      </c>
+      <c r="O30">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P30">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q30">
+        <v>10.50244829312584</v>
+      </c>
+      <c r="R30">
+        <v>63.01468975875502</v>
+      </c>
+      <c r="S30">
+        <v>0.04548132294340235</v>
+      </c>
+      <c r="T30">
+        <v>0.04409649342889734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.7184595</v>
+      </c>
+      <c r="H31">
+        <v>3.436919000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.1510575707579875</v>
+      </c>
+      <c r="J31">
+        <v>0.1174106625400361</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.6551325</v>
+      </c>
+      <c r="N31">
+        <v>3.310265</v>
+      </c>
+      <c r="O31">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P31">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q31">
+        <v>2.844278168383751</v>
+      </c>
+      <c r="R31">
+        <v>11.377112673535</v>
+      </c>
+      <c r="S31">
+        <v>0.0123172740590212</v>
+      </c>
+      <c r="T31">
+        <v>0.007961489236383297</v>
       </c>
     </row>
   </sheetData>
